--- a/Financials/Yearly/IGLD_YR_FIN.xlsx
+++ b/Financials/Yearly/IGLD_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E65849-F7FB-4779-92E9-D5C87C598E29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IGLD" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,34 +741,34 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2734400</v>
+        <v>2700800</v>
       </c>
       <c r="E8" s="3">
-        <v>2816800</v>
+        <v>2782200</v>
       </c>
       <c r="F8" s="3">
-        <v>2789100</v>
+        <v>2754900</v>
       </c>
       <c r="G8" s="3">
-        <v>2529300</v>
+        <v>2498300</v>
       </c>
       <c r="H8" s="3">
-        <v>2671200</v>
+        <v>2638400</v>
       </c>
       <c r="I8" s="3">
-        <v>2871000</v>
+        <v>2835700</v>
       </c>
       <c r="J8" s="3">
-        <v>3177700</v>
+        <v>3138600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,61 +889,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42500</v>
+        <v>41900</v>
       </c>
       <c r="E14" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="F14" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="G14" s="3">
-        <v>-110600</v>
+        <v>-109300</v>
       </c>
       <c r="H14" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="I14" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J14" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>591300</v>
+        <v>584100</v>
       </c>
       <c r="E15" s="3">
-        <v>603600</v>
+        <v>596200</v>
       </c>
       <c r="F15" s="3">
-        <v>595300</v>
+        <v>587900</v>
       </c>
       <c r="G15" s="3">
-        <v>523200</v>
+        <v>516800</v>
       </c>
       <c r="H15" s="3">
-        <v>562600</v>
+        <v>555700</v>
       </c>
       <c r="I15" s="3">
-        <v>661200</v>
+        <v>653100</v>
       </c>
       <c r="J15" s="3">
-        <v>833500</v>
+        <v>823300</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2286300</v>
+        <v>2258200</v>
       </c>
       <c r="E17" s="3">
-        <v>2296900</v>
+        <v>2268700</v>
       </c>
       <c r="F17" s="3">
-        <v>2226800</v>
+        <v>2199500</v>
       </c>
       <c r="G17" s="3">
-        <v>1810100</v>
+        <v>1787800</v>
       </c>
       <c r="H17" s="3">
-        <v>2103600</v>
+        <v>2077800</v>
       </c>
       <c r="I17" s="3">
-        <v>2330500</v>
+        <v>2301800</v>
       </c>
       <c r="J17" s="3">
-        <v>2764500</v>
+        <v>2730600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>448000</v>
+        <v>442500</v>
       </c>
       <c r="E18" s="3">
-        <v>519800</v>
+        <v>513400</v>
       </c>
       <c r="F18" s="3">
-        <v>562300</v>
+        <v>555400</v>
       </c>
       <c r="G18" s="3">
-        <v>719300</v>
+        <v>710400</v>
       </c>
       <c r="H18" s="3">
-        <v>567600</v>
+        <v>560600</v>
       </c>
       <c r="I18" s="3">
-        <v>540500</v>
+        <v>533900</v>
       </c>
       <c r="J18" s="3">
-        <v>413100</v>
+        <v>408100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="E20" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="F20" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="G20" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H20" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="I20" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="J20" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1018200</v>
+        <v>1003600</v>
       </c>
       <c r="E21" s="3">
-        <v>1108800</v>
+        <v>1093000</v>
       </c>
       <c r="F21" s="3">
-        <v>1189700</v>
+        <v>1173000</v>
       </c>
       <c r="G21" s="3">
-        <v>1252200</v>
+        <v>1234900</v>
       </c>
       <c r="H21" s="3">
-        <v>1147500</v>
+        <v>1131400</v>
       </c>
       <c r="I21" s="3">
-        <v>1229200</v>
+        <v>1211800</v>
       </c>
       <c r="J21" s="3">
-        <v>1222800</v>
+        <v>1204800</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>140500</v>
+        <v>138800</v>
       </c>
       <c r="E22" s="3">
-        <v>258100</v>
+        <v>254900</v>
       </c>
       <c r="F22" s="3">
-        <v>194100</v>
+        <v>191800</v>
       </c>
       <c r="G22" s="3">
-        <v>250300</v>
+        <v>247200</v>
       </c>
       <c r="H22" s="3">
-        <v>197500</v>
+        <v>195100</v>
       </c>
       <c r="I22" s="3">
-        <v>210900</v>
+        <v>208300</v>
       </c>
       <c r="J22" s="3">
-        <v>205300</v>
+        <v>202800</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>285500</v>
+        <v>282000</v>
       </c>
       <c r="E23" s="3">
-        <v>246100</v>
+        <v>243100</v>
       </c>
       <c r="F23" s="3">
-        <v>399400</v>
+        <v>394500</v>
       </c>
       <c r="G23" s="3">
-        <v>477900</v>
+        <v>472100</v>
       </c>
       <c r="H23" s="3">
-        <v>386600</v>
+        <v>381800</v>
       </c>
       <c r="I23" s="3">
-        <v>356100</v>
+        <v>351800</v>
       </c>
       <c r="J23" s="3">
-        <v>190800</v>
+        <v>188400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96900</v>
+        <v>95700</v>
       </c>
       <c r="E24" s="3">
-        <v>123500</v>
+        <v>121900</v>
       </c>
       <c r="F24" s="3">
-        <v>96900</v>
+        <v>95700</v>
       </c>
       <c r="G24" s="3">
-        <v>186300</v>
+        <v>184000</v>
       </c>
       <c r="H24" s="3">
-        <v>146400</v>
+        <v>144600</v>
       </c>
       <c r="I24" s="3">
-        <v>155300</v>
+        <v>153400</v>
       </c>
       <c r="J24" s="3">
-        <v>182400</v>
+        <v>180200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188500</v>
+        <v>186200</v>
       </c>
       <c r="E26" s="3">
-        <v>122600</v>
+        <v>121100</v>
       </c>
       <c r="F26" s="3">
-        <v>302500</v>
+        <v>298800</v>
       </c>
       <c r="G26" s="3">
-        <v>291600</v>
+        <v>288000</v>
       </c>
       <c r="H26" s="3">
-        <v>240200</v>
+        <v>237300</v>
       </c>
       <c r="I26" s="3">
-        <v>200800</v>
+        <v>198400</v>
       </c>
       <c r="J26" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-56400</v>
+        <v>-55700</v>
       </c>
       <c r="F27" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G27" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H27" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I27" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="J27" s="3">
-        <v>-74300</v>
+        <v>-73400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="E32" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="F32" s="3">
-        <v>-31300</v>
+        <v>-30900</v>
       </c>
       <c r="G32" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-16500</v>
+        <v>-16300</v>
       </c>
       <c r="I32" s="3">
-        <v>-26500</v>
+        <v>-26200</v>
       </c>
       <c r="J32" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-56400</v>
+        <v>-55700</v>
       </c>
       <c r="F33" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G33" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H33" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I33" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="J33" s="3">
-        <v>-74300</v>
+        <v>-73400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-56400</v>
+        <v>-55700</v>
       </c>
       <c r="F35" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G35" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H35" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I35" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="J35" s="3">
-        <v>-74300</v>
+        <v>-73400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>672600</v>
+        <v>664400</v>
       </c>
       <c r="E41" s="3">
-        <v>226300</v>
+        <v>223500</v>
       </c>
       <c r="F41" s="3">
-        <v>172900</v>
+        <v>170800</v>
       </c>
       <c r="G41" s="3">
-        <v>204500</v>
+        <v>202000</v>
       </c>
       <c r="H41" s="3">
-        <v>242200</v>
+        <v>239200</v>
       </c>
       <c r="I41" s="3">
-        <v>213400</v>
+        <v>210800</v>
       </c>
       <c r="J41" s="3">
-        <v>808400</v>
+        <v>798500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>214800</v>
+        <v>212200</v>
       </c>
       <c r="E42" s="3">
-        <v>346400</v>
+        <v>342100</v>
       </c>
       <c r="F42" s="3">
-        <v>495500</v>
+        <v>489400</v>
       </c>
       <c r="G42" s="3">
-        <v>951400</v>
+        <v>939700</v>
       </c>
       <c r="H42" s="3">
-        <v>521800</v>
+        <v>515400</v>
       </c>
       <c r="I42" s="3">
-        <v>462300</v>
+        <v>456600</v>
       </c>
       <c r="J42" s="3">
-        <v>432400</v>
+        <v>427100</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>603900</v>
+        <v>596500</v>
       </c>
       <c r="E43" s="3">
-        <v>578800</v>
+        <v>571700</v>
       </c>
       <c r="F43" s="3">
-        <v>612600</v>
+        <v>605000</v>
       </c>
       <c r="G43" s="3">
-        <v>660900</v>
+        <v>652800</v>
       </c>
       <c r="H43" s="3">
-        <v>898600</v>
+        <v>887600</v>
       </c>
       <c r="I43" s="3">
-        <v>1788300</v>
+        <v>1766300</v>
       </c>
       <c r="J43" s="3">
-        <v>1853600</v>
+        <v>1830900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34900</v>
+        <v>34500</v>
       </c>
       <c r="E44" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F44" s="3">
-        <v>32100</v>
+        <v>31700</v>
       </c>
       <c r="G44" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="H44" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="I44" s="3">
-        <v>34400</v>
+        <v>33900</v>
       </c>
       <c r="J44" s="3">
-        <v>57000</v>
+        <v>56300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="E45" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="F45" s="3">
-        <v>85500</v>
+        <v>84400</v>
       </c>
       <c r="G45" s="3">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="H45" s="3">
-        <v>96400</v>
+        <v>95200</v>
       </c>
       <c r="I45" s="3">
-        <v>76500</v>
+        <v>75600</v>
       </c>
       <c r="J45" s="3">
-        <v>73200</v>
+        <v>72300</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1544700</v>
+        <v>1525700</v>
       </c>
       <c r="E46" s="3">
-        <v>1221500</v>
+        <v>1206500</v>
       </c>
       <c r="F46" s="3">
-        <v>1394100</v>
+        <v>1377000</v>
       </c>
       <c r="G46" s="3">
-        <v>1905000</v>
+        <v>1881600</v>
       </c>
       <c r="H46" s="3">
-        <v>1694700</v>
+        <v>1673900</v>
       </c>
       <c r="I46" s="3">
-        <v>1665400</v>
+        <v>1644900</v>
       </c>
       <c r="J46" s="3">
-        <v>1876800</v>
+        <v>1853800</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140800</v>
+        <v>139100</v>
       </c>
       <c r="E47" s="3">
-        <v>184900</v>
+        <v>182600</v>
       </c>
       <c r="F47" s="3">
-        <v>195300</v>
+        <v>192900</v>
       </c>
       <c r="G47" s="3">
-        <v>529100</v>
+        <v>522600</v>
       </c>
       <c r="H47" s="3">
-        <v>488300</v>
+        <v>482300</v>
       </c>
       <c r="I47" s="3">
-        <v>605900</v>
+        <v>598400</v>
       </c>
       <c r="J47" s="3">
-        <v>747800</v>
+        <v>738600</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1938600</v>
+        <v>1914700</v>
       </c>
       <c r="E48" s="3">
-        <v>1975400</v>
+        <v>1951200</v>
       </c>
       <c r="F48" s="3">
-        <v>2014800</v>
+        <v>1990100</v>
       </c>
       <c r="G48" s="3">
-        <v>1835800</v>
+        <v>1813200</v>
       </c>
       <c r="H48" s="3">
-        <v>3654200</v>
+        <v>3609300</v>
       </c>
       <c r="I48" s="3">
-        <v>2776300</v>
+        <v>2742200</v>
       </c>
       <c r="J48" s="3">
-        <v>4053400</v>
+        <v>4003600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1758100</v>
+        <v>1736500</v>
       </c>
       <c r="E49" s="3">
-        <v>1945800</v>
+        <v>1921900</v>
       </c>
       <c r="F49" s="3">
-        <v>2654800</v>
+        <v>2622200</v>
       </c>
       <c r="G49" s="3">
-        <v>1650300</v>
+        <v>1630000</v>
       </c>
       <c r="H49" s="3">
-        <v>3694400</v>
+        <v>3649100</v>
       </c>
       <c r="I49" s="3">
-        <v>4051400</v>
+        <v>4001700</v>
       </c>
       <c r="J49" s="3">
-        <v>6775100</v>
+        <v>6692000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>437400</v>
+        <v>432100</v>
       </c>
       <c r="E52" s="3">
-        <v>406100</v>
+        <v>401200</v>
       </c>
       <c r="F52" s="3">
-        <v>539900</v>
+        <v>533300</v>
       </c>
       <c r="G52" s="3">
-        <v>101700</v>
+        <v>100400</v>
       </c>
       <c r="H52" s="3">
-        <v>123200</v>
+        <v>121700</v>
       </c>
       <c r="I52" s="3">
-        <v>143000</v>
+        <v>141300</v>
       </c>
       <c r="J52" s="3">
-        <v>177400</v>
+        <v>175200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5819600</v>
+        <v>5748100</v>
       </c>
       <c r="E54" s="3">
-        <v>5733800</v>
+        <v>5663400</v>
       </c>
       <c r="F54" s="3">
-        <v>6259800</v>
+        <v>6182900</v>
       </c>
       <c r="G54" s="3">
-        <v>6021800</v>
+        <v>5947900</v>
       </c>
       <c r="H54" s="3">
-        <v>5980500</v>
+        <v>5907000</v>
       </c>
       <c r="I54" s="3">
-        <v>6370400</v>
+        <v>6292200</v>
       </c>
       <c r="J54" s="3">
-        <v>7055600</v>
+        <v>6969000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>484600</v>
+        <v>478700</v>
       </c>
       <c r="E57" s="3">
-        <v>464000</v>
+        <v>458300</v>
       </c>
       <c r="F57" s="3">
-        <v>479600</v>
+        <v>473700</v>
       </c>
       <c r="G57" s="3">
-        <v>185500</v>
+        <v>183200</v>
       </c>
       <c r="H57" s="3">
-        <v>201400</v>
+        <v>198900</v>
       </c>
       <c r="I57" s="3">
-        <v>221500</v>
+        <v>218800</v>
       </c>
       <c r="J57" s="3">
-        <v>249200</v>
+        <v>246100</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>546100</v>
+        <v>539400</v>
       </c>
       <c r="E58" s="3">
-        <v>609200</v>
+        <v>601700</v>
       </c>
       <c r="F58" s="3">
-        <v>619800</v>
+        <v>612200</v>
       </c>
       <c r="G58" s="3">
-        <v>436000</v>
+        <v>430700</v>
       </c>
       <c r="H58" s="3">
-        <v>437400</v>
+        <v>432100</v>
       </c>
       <c r="I58" s="3">
-        <v>476800</v>
+        <v>471000</v>
       </c>
       <c r="J58" s="3">
-        <v>368700</v>
+        <v>364200</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149200</v>
+        <v>147300</v>
       </c>
       <c r="E59" s="3">
-        <v>157800</v>
+        <v>155900</v>
       </c>
       <c r="F59" s="3">
-        <v>395500</v>
+        <v>390700</v>
       </c>
       <c r="G59" s="3">
-        <v>488500</v>
+        <v>482500</v>
       </c>
       <c r="H59" s="3">
-        <v>507500</v>
+        <v>501300</v>
       </c>
       <c r="I59" s="3">
-        <v>670100</v>
+        <v>661900</v>
       </c>
       <c r="J59" s="3">
-        <v>950600</v>
+        <v>938900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1179900</v>
+        <v>1165400</v>
       </c>
       <c r="E60" s="3">
-        <v>1231000</v>
+        <v>1215900</v>
       </c>
       <c r="F60" s="3">
-        <v>1495000</v>
+        <v>1476600</v>
       </c>
       <c r="G60" s="3">
-        <v>1110100</v>
+        <v>1096400</v>
       </c>
       <c r="H60" s="3">
-        <v>1146400</v>
+        <v>1132300</v>
       </c>
       <c r="I60" s="3">
-        <v>1368400</v>
+        <v>1351600</v>
       </c>
       <c r="J60" s="3">
-        <v>1337200</v>
+        <v>1320700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3672900</v>
+        <v>3627800</v>
       </c>
       <c r="E61" s="3">
-        <v>3419300</v>
+        <v>3377300</v>
       </c>
       <c r="F61" s="3">
-        <v>3691300</v>
+        <v>3646000</v>
       </c>
       <c r="G61" s="3">
-        <v>3748300</v>
+        <v>3702300</v>
       </c>
       <c r="H61" s="3">
-        <v>3554500</v>
+        <v>3510800</v>
       </c>
       <c r="I61" s="3">
-        <v>3596400</v>
+        <v>3552200</v>
       </c>
       <c r="J61" s="3">
-        <v>3847800</v>
+        <v>3800500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>280700</v>
+        <v>277300</v>
       </c>
       <c r="E62" s="3">
-        <v>319000</v>
+        <v>315100</v>
       </c>
       <c r="F62" s="3">
-        <v>346900</v>
+        <v>342700</v>
       </c>
       <c r="G62" s="3">
-        <v>390800</v>
+        <v>386000</v>
       </c>
       <c r="H62" s="3">
-        <v>398900</v>
+        <v>394000</v>
       </c>
       <c r="I62" s="3">
-        <v>433500</v>
+        <v>428200</v>
       </c>
       <c r="J62" s="3">
-        <v>686000</v>
+        <v>677600</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5770100</v>
+        <v>5699300</v>
       </c>
       <c r="E66" s="3">
-        <v>5679600</v>
+        <v>5609900</v>
       </c>
       <c r="F66" s="3">
-        <v>6285800</v>
+        <v>6208600</v>
       </c>
       <c r="G66" s="3">
-        <v>6072900</v>
+        <v>5998300</v>
       </c>
       <c r="H66" s="3">
-        <v>6004500</v>
+        <v>5930700</v>
       </c>
       <c r="I66" s="3">
-        <v>6396100</v>
+        <v>6317600</v>
       </c>
       <c r="J66" s="3">
-        <v>7063100</v>
+        <v>6976400</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87200</v>
+        <v>-86100</v>
       </c>
       <c r="E72" s="3">
-        <v>-82400</v>
+        <v>-81400</v>
       </c>
       <c r="F72" s="3">
-        <v>-162600</v>
+        <v>-160600</v>
       </c>
       <c r="G72" s="3">
-        <v>-187700</v>
+        <v>-185400</v>
       </c>
       <c r="H72" s="3">
-        <v>-160600</v>
+        <v>-158600</v>
       </c>
       <c r="I72" s="3">
-        <v>-162300</v>
+        <v>-160300</v>
       </c>
       <c r="J72" s="3">
-        <v>-144100</v>
+        <v>-142400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49400</v>
+        <v>48800</v>
       </c>
       <c r="E76" s="3">
-        <v>54200</v>
+        <v>53500</v>
       </c>
       <c r="F76" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="G76" s="3">
-        <v>-51100</v>
+        <v>-50500</v>
       </c>
       <c r="H76" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="I76" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="J76" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-56400</v>
+        <v>-55700</v>
       </c>
       <c r="F81" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="G81" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H81" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I81" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="J81" s="3">
-        <v>-74300</v>
+        <v>-73400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>591300</v>
+        <v>584100</v>
       </c>
       <c r="E83" s="3">
-        <v>603600</v>
+        <v>596200</v>
       </c>
       <c r="F83" s="3">
-        <v>595300</v>
+        <v>587900</v>
       </c>
       <c r="G83" s="3">
-        <v>523200</v>
+        <v>516800</v>
       </c>
       <c r="H83" s="3">
-        <v>562600</v>
+        <v>555700</v>
       </c>
       <c r="I83" s="3">
-        <v>661200</v>
+        <v>653100</v>
       </c>
       <c r="J83" s="3">
-        <v>825400</v>
+        <v>815300</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>972100</v>
+        <v>960100</v>
       </c>
       <c r="E89" s="3">
-        <v>965600</v>
+        <v>953800</v>
       </c>
       <c r="F89" s="3">
-        <v>1017900</v>
+        <v>1005400</v>
       </c>
       <c r="G89" s="3">
-        <v>1056400</v>
+        <v>1043500</v>
       </c>
       <c r="H89" s="3">
-        <v>1156700</v>
+        <v>1142500</v>
       </c>
       <c r="I89" s="3">
-        <v>1116500</v>
+        <v>1102800</v>
       </c>
       <c r="J89" s="3">
-        <v>886000</v>
+        <v>875200</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427400</v>
+        <v>-312000</v>
       </c>
       <c r="E91" s="3">
-        <v>-395500</v>
+        <v>-329100</v>
       </c>
       <c r="F91" s="3">
-        <v>-456700</v>
+        <v>-365300</v>
       </c>
       <c r="G91" s="3">
-        <v>-356100</v>
+        <v>-298200</v>
       </c>
       <c r="H91" s="3">
-        <v>-343000</v>
+        <v>-287500</v>
       </c>
       <c r="I91" s="3">
-        <v>-430200</v>
+        <v>-350700</v>
       </c>
       <c r="J91" s="3">
-        <v>-531600</v>
+        <v>-427100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-269800</v>
+        <v>-266500</v>
       </c>
       <c r="E94" s="3">
-        <v>-289400</v>
+        <v>-285800</v>
       </c>
       <c r="F94" s="3">
-        <v>106400</v>
+        <v>105100</v>
       </c>
       <c r="G94" s="3">
-        <v>-555600</v>
+        <v>-548800</v>
       </c>
       <c r="H94" s="3">
-        <v>-288500</v>
+        <v>-285000</v>
       </c>
       <c r="I94" s="3">
-        <v>-324000</v>
+        <v>-320000</v>
       </c>
       <c r="J94" s="3">
-        <v>-579600</v>
+        <v>-572500</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2862,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,34 +2970,34 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-255900</v>
+        <v>-252700</v>
       </c>
       <c r="E100" s="3">
-        <v>-622900</v>
+        <v>-615300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1155900</v>
+        <v>-1141700</v>
       </c>
       <c r="G100" s="3">
-        <v>-538500</v>
+        <v>-531900</v>
       </c>
       <c r="H100" s="3">
-        <v>-839400</v>
+        <v>-829100</v>
       </c>
       <c r="I100" s="3">
-        <v>-983200</v>
+        <v>-971200</v>
       </c>
       <c r="J100" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2989,30 +3024,30 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>446400</v>
+        <v>440900</v>
       </c>
       <c r="E102" s="3">
-        <v>53400</v>
+        <v>52700</v>
       </c>
       <c r="F102" s="3">
-        <v>-31600</v>
+        <v>-31200</v>
       </c>
       <c r="G102" s="3">
-        <v>-37700</v>
+        <v>-37200</v>
       </c>
       <c r="H102" s="3">
-        <v>28800</v>
+        <v>28400</v>
       </c>
       <c r="I102" s="3">
-        <v>-190800</v>
+        <v>-188400</v>
       </c>
       <c r="J102" s="3">
-        <v>291300</v>
+        <v>287800</v>
       </c>
       <c r="K102" s="3"/>
     </row>
